--- a/Blueprint_FirstThreeWeeks/BlueprintFullTestReview.xlsx
+++ b/Blueprint_FirstThreeWeeks/BlueprintFullTestReview.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melton\OneDrive\Desktop\MCAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melton\OneDrive\Desktop\MCAT\Blueprint_FirstThreeWeeks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{102740B9-121A-41CF-B75E-F51F4A52B355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736473AE-9240-4575-9059-94756E23C3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{865720B1-D8A7-4E41-851D-056BAB6FE78C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{865720B1-D8A7-4E41-851D-056BAB6FE78C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ChemPhys" sheetId="1" r:id="rId1"/>
+    <sheet name="CARS" sheetId="2" r:id="rId2"/>
+    <sheet name="BB" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,12 +26,254 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="74">
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Flagged</t>
+  </si>
+  <si>
+    <t>Flagged?</t>
+  </si>
+  <si>
+    <t>Incorrect?</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Content Gap?</t>
+  </si>
+  <si>
+    <t>Carelessness?</t>
+  </si>
+  <si>
+    <t>If so, what section?</t>
+  </si>
+  <si>
+    <t>Radioactivity: beta decay</t>
+  </si>
+  <si>
+    <t>To Learn:</t>
+  </si>
+  <si>
+    <t>In beta-minus decay, a neutron is conveted to a proton and an electron is emitted. I thought only an electron was emitted</t>
+  </si>
+  <si>
+    <t>Same contamination level -&gt; child weigh less so they're gonna get hit by it harder</t>
+  </si>
+  <si>
+    <t>Kinda content gap too? Cancer just takes longer than just two years</t>
+  </si>
+  <si>
+    <t>Organic Chemistry</t>
+  </si>
+  <si>
+    <t>If there is a dash or wedge, it's a stereocenter</t>
+  </si>
+  <si>
+    <t>OMG the "preferred ion configuration" is not the noble gas [Ar]s^2 thing but it was what elements *want* to be. Lost a free point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y </t>
+  </si>
+  <si>
+    <t>Question was harder than I thought: needed to calculate the normal force too and then calculate the force of the hypotenuse</t>
+  </si>
+  <si>
+    <t>Had to consider 1 proton for each Captopril, not two. That was carelessness</t>
+  </si>
+  <si>
+    <t>I think I got too cocky: I knew the right answer but I did it too quickly</t>
+  </si>
+  <si>
+    <t>P = IV</t>
+  </si>
+  <si>
+    <t>Physics: Electromagnetism</t>
+  </si>
+  <si>
+    <t>Organic Chemistry: C=O -&gt; C-OH</t>
+  </si>
+  <si>
+    <t>LiAlH4</t>
+  </si>
+  <si>
+    <t>Well I got it right and I am glad since I studied terpenes from KA.</t>
+  </si>
+  <si>
+    <t>O-Chem: infrared peaks</t>
+  </si>
+  <si>
+    <t>1700-1750 is C=O and O-H is 3200-3500</t>
+  </si>
+  <si>
+    <t>Should not have Flagged</t>
+  </si>
+  <si>
+    <t>Over-thinked in this question. Don't try calculating deltaG to E and then subtract, blah blah blah. Just find value greater than 0.22</t>
+  </si>
+  <si>
+    <t>NOOOO. Neg delta G means Keq is greater than 1… I have no idea what I was thining</t>
+  </si>
+  <si>
+    <t>I think the idea here was the 2nd law of thermodynamics which essentially suggests excess energy becomes heat. Eitherway, it was hard to identify that.</t>
+  </si>
+  <si>
+    <t>Quantum Chemistry: Orbital Hybridizations</t>
+  </si>
+  <si>
+    <t>Organic Chemistry: Amino Acid Knowledge</t>
+  </si>
+  <si>
+    <t>Forgot that the lone electrons were part of the hybridizations, which is why I did sp2 for NH3</t>
+  </si>
+  <si>
+    <t>Technically did not know that Leucine had all carbon R group. But I at least knew it was nonpolar.</t>
+  </si>
+  <si>
+    <t>Chemistry: Equilibrium</t>
+  </si>
+  <si>
+    <t>Association constant = equilibrium constant</t>
+  </si>
+  <si>
+    <t>Chemistry: Thermodynamics</t>
+  </si>
+  <si>
+    <t>Rate of cation formation is related to energy required to remove a hydrogen atom.</t>
+  </si>
+  <si>
+    <t>Had to read carefully, High RSE = Low Stability, so opposite of what I thought.</t>
+  </si>
+  <si>
+    <t>Had to use past information to know that fluorine group will be destabilizing</t>
+  </si>
+  <si>
+    <t>It actually says what the minimum shear rate value is… and I didn't notice and just guessed between A and B.</t>
+  </si>
+  <si>
+    <t>Forgot delta G = delta H - T delta S</t>
+  </si>
+  <si>
+    <t>Difference between capacitor, galvanic cell, and electrolytic cell?</t>
+  </si>
+  <si>
+    <t>Usually, metals are solid at standard temperature</t>
+  </si>
+  <si>
+    <t>Physics: Mechanics</t>
+  </si>
+  <si>
+    <t>I got it right, so it's ok</t>
+  </si>
+  <si>
+    <t>Preventable? Probability?</t>
+  </si>
+  <si>
+    <t>No, I think I probably wouldve still got this wrong</t>
+  </si>
+  <si>
+    <t>Yes, I think if I was more careful, I couldve got this right. Just needed to look at end of paragraph</t>
+  </si>
+  <si>
+    <t>Yes, I think if I was more careful, I couldve got this right. This one I needed to understand to whole passage… maybe I was overthinking this one</t>
+  </si>
+  <si>
+    <t>Here, I was too focused on the quotes and didn't focus on the overall meaning of the paragraph, the trend</t>
+  </si>
+  <si>
+    <t>No, prob still get it wrong</t>
+  </si>
+  <si>
+    <t>Yes, if I answered this question more carefully.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Just was biased and didn't want to pick A. be irrelevant</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>No, this question is bad. It argues "not that the small business owner was blameless in the situation as a whole"… the question literally asks about business owners duped by consultants not the owners in the situation as a whole???</t>
+  </si>
+  <si>
+    <t>Didn't read the whole option carefully l o l</t>
+  </si>
+  <si>
+    <t>Think most of the time, authors do not just explain/inform abt things</t>
+  </si>
+  <si>
+    <t>Think here, two options were really similar so look at the other option…</t>
+  </si>
+  <si>
+    <t>Didn't know what experiential was so I avoided this. Looking a theoretical now, all game playing is ig</t>
+  </si>
+  <si>
+    <t>Oh woops shouldve got this</t>
+  </si>
+  <si>
+    <t>Oh woops changed my answer. 'impossible' was prob the key word for this being wrong</t>
+  </si>
+  <si>
+    <t>Too focused on Amundsen…my bad</t>
+  </si>
+  <si>
+    <t>idk, but I think I wouldve still got this wrong</t>
+  </si>
+  <si>
+    <t>Make sure controls were done in the experiment</t>
+  </si>
+  <si>
+    <t>Didn't understand the graphs carefully. I actually put A first…</t>
+  </si>
+  <si>
+    <t>The graph shows invasiveness didn't decrease at all with ALDH knocked out.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -52,13 +296,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -72,6 +324,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0C5B38-816C-4E42-833D-DD19C207720A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7886700" y="9696450"/>
+          <a:ext cx="4279900" cy="1250950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>248642</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1162422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26743FC-19E7-494B-97F1-F45BD221FC57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3632200" y="3686864"/>
+          <a:ext cx="5049242" cy="1895158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +738,1141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC950E7-EA61-4013-B7F8-036CC8C8D49D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="40.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB11372-06BF-4451-AFB5-A6B59A6F2E35}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="39.90625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078A4B2C-C183-4EFC-B4D7-4D00994F4FC5}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="28.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>